--- a/table/fa_communalities.xlsx
+++ b/table/fa_communalities.xlsx
@@ -478,22 +478,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.7528157001766134</v>
+        <v>0.7528</v>
       </c>
       <c r="C2">
-        <v>0.7528157001766134</v>
+        <v>0.7528</v>
       </c>
       <c r="D2">
-        <v>0.7836048853901254</v>
+        <v>0.7836</v>
       </c>
       <c r="E2">
-        <v>0.783604885390125</v>
+        <v>0.7836</v>
       </c>
       <c r="F2">
-        <v>0.8019566573105712</v>
+        <v>0.802</v>
       </c>
       <c r="G2">
-        <v>0.8019566573105721</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -501,22 +501,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8383754444825828</v>
+        <v>0.8384</v>
       </c>
       <c r="C3">
-        <v>0.8383754444825828</v>
+        <v>0.8384</v>
       </c>
       <c r="D3">
-        <v>0.8400994013348095</v>
+        <v>0.8401</v>
       </c>
       <c r="E3">
-        <v>0.8400994013348089</v>
+        <v>0.8401</v>
       </c>
       <c r="F3">
-        <v>0.8419369720419139</v>
+        <v>0.8419</v>
       </c>
       <c r="G3">
-        <v>0.8419369720419148</v>
+        <v>0.8419</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -524,22 +524,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7824632235235681</v>
+        <v>0.7825</v>
       </c>
       <c r="C4">
-        <v>0.7824632235235681</v>
+        <v>0.7825</v>
       </c>
       <c r="D4">
-        <v>0.8023672631599108</v>
+        <v>0.8024</v>
       </c>
       <c r="E4">
-        <v>0.8023672631599104</v>
+        <v>0.8024</v>
       </c>
       <c r="F4">
-        <v>0.8050002689099398</v>
+        <v>0.805</v>
       </c>
       <c r="G4">
-        <v>0.8050002689099409</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -547,22 +547,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3908749025595096</v>
+        <v>0.3909</v>
       </c>
       <c r="C5">
-        <v>0.3908749025595096</v>
+        <v>0.3909</v>
       </c>
       <c r="D5">
-        <v>0.9411806522735175</v>
+        <v>0.9412</v>
       </c>
       <c r="E5">
-        <v>0.9411806522735178</v>
+        <v>0.9412</v>
       </c>
       <c r="F5">
-        <v>0.9756928579152717</v>
+        <v>0.9757</v>
       </c>
       <c r="G5">
-        <v>0.9756928579152726</v>
+        <v>0.9757</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -570,22 +570,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8194390771271463</v>
+        <v>0.8194</v>
       </c>
       <c r="C6">
-        <v>0.8194390771271463</v>
+        <v>0.8194</v>
       </c>
       <c r="D6">
-        <v>0.8294661462192254</v>
+        <v>0.8295</v>
       </c>
       <c r="E6">
-        <v>0.8294661462192252</v>
+        <v>0.8295</v>
       </c>
       <c r="F6">
-        <v>0.8515460520784698</v>
+        <v>0.8515</v>
       </c>
       <c r="G6">
-        <v>0.8515460520784707</v>
+        <v>0.8515</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -593,22 +593,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8390669891508489</v>
+        <v>0.8391</v>
       </c>
       <c r="C7">
-        <v>0.8390669891508489</v>
+        <v>0.8391</v>
       </c>
       <c r="D7">
-        <v>0.8401416920418637</v>
+        <v>0.8401</v>
       </c>
       <c r="E7">
-        <v>0.8401416920418631</v>
+        <v>0.8401</v>
       </c>
       <c r="F7">
-        <v>0.8866468052557765</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="G7">
-        <v>0.8866468052557773</v>
+        <v>0.8866000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.6511409126379257</v>
+        <v>0.6511</v>
       </c>
       <c r="C8">
-        <v>0.6511409126379257</v>
+        <v>0.6511</v>
       </c>
       <c r="D8">
-        <v>0.7132088982274095</v>
+        <v>0.7131999999999999</v>
       </c>
       <c r="E8">
-        <v>0.7132088982274092</v>
+        <v>0.7131999999999999</v>
       </c>
       <c r="F8">
-        <v>0.8806303815165339</v>
+        <v>0.8806</v>
       </c>
       <c r="G8">
-        <v>0.8806303815165348</v>
+        <v>0.8806</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -639,22 +639,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.8118896297755032</v>
+        <v>0.8119</v>
       </c>
       <c r="C9">
-        <v>0.8118896297755032</v>
+        <v>0.8119</v>
       </c>
       <c r="D9">
-        <v>0.8119079693295314</v>
+        <v>0.8119</v>
       </c>
       <c r="E9">
-        <v>0.8119079693295309</v>
+        <v>0.8119</v>
       </c>
       <c r="F9">
-        <v>0.8414163156446209</v>
+        <v>0.8414</v>
       </c>
       <c r="G9">
-        <v>0.8414163156446219</v>
+        <v>0.8414</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -662,22 +662,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7667732429768488</v>
+        <v>0.7668</v>
       </c>
       <c r="C10">
-        <v>0.7667732429768488</v>
+        <v>0.7668</v>
       </c>
       <c r="D10">
-        <v>0.7941800731957392</v>
+        <v>0.7942</v>
       </c>
       <c r="E10">
-        <v>0.7941800731957388</v>
+        <v>0.7942</v>
       </c>
       <c r="F10">
-        <v>0.8046331856455232</v>
+        <v>0.8046</v>
       </c>
       <c r="G10">
-        <v>0.804633185645524</v>
+        <v>0.8046</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -685,22 +685,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7414259259394093</v>
+        <v>0.7413999999999999</v>
       </c>
       <c r="C11">
-        <v>0.7414259259394093</v>
+        <v>0.7413999999999999</v>
       </c>
       <c r="D11">
-        <v>0.7470356700436289</v>
+        <v>0.747</v>
       </c>
       <c r="E11">
-        <v>0.7470356700436286</v>
+        <v>0.747</v>
       </c>
       <c r="F11">
-        <v>0.8321419641638668</v>
+        <v>0.8321</v>
       </c>
       <c r="G11">
-        <v>0.8321419641638674</v>
+        <v>0.8321</v>
       </c>
     </row>
   </sheetData>
@@ -750,31 +750,31 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.731706947997053</v>
+        <v>0.7317</v>
       </c>
       <c r="C2">
-        <v>0.731706947997053</v>
+        <v>0.7317</v>
       </c>
       <c r="D2">
-        <v>0.731706947997053</v>
+        <v>0.7317</v>
       </c>
       <c r="E2">
-        <v>0.7739350597183642</v>
+        <v>0.7739</v>
       </c>
       <c r="F2">
-        <v>0.7739350597183643</v>
+        <v>0.7739</v>
       </c>
       <c r="G2">
-        <v>0.6711336498939615</v>
+        <v>0.6711</v>
       </c>
       <c r="H2">
-        <v>0.8576186244300981</v>
+        <v>0.8576</v>
       </c>
       <c r="I2">
-        <v>0.8576186244300983</v>
+        <v>0.8576</v>
       </c>
       <c r="J2">
-        <v>0.8925637138421653</v>
+        <v>0.8925999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -782,31 +782,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8245186486433786</v>
+        <v>0.8245</v>
       </c>
       <c r="C3">
-        <v>0.8245186486433786</v>
+        <v>0.8245</v>
       </c>
       <c r="D3">
-        <v>0.8245186486433786</v>
+        <v>0.8245</v>
       </c>
       <c r="E3">
-        <v>0.972689964129054</v>
+        <v>0.9727</v>
       </c>
       <c r="F3">
-        <v>0.9726899641290538</v>
+        <v>0.9727</v>
       </c>
       <c r="G3">
-        <v>0.8019413023132547</v>
+        <v>0.8018999999999999</v>
       </c>
       <c r="H3">
-        <v>0.912771370800926</v>
+        <v>0.9127999999999999</v>
       </c>
       <c r="I3">
-        <v>0.912771370800926</v>
+        <v>0.9127999999999999</v>
       </c>
       <c r="J3">
-        <v>0.8206932755545391</v>
+        <v>0.8207</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -814,31 +814,31 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.749585026251559</v>
+        <v>0.7496</v>
       </c>
       <c r="C4">
-        <v>0.749585026251559</v>
+        <v>0.7496</v>
       </c>
       <c r="D4">
-        <v>0.749585026251559</v>
+        <v>0.7496</v>
       </c>
       <c r="E4">
-        <v>0.7692408004747409</v>
+        <v>0.7692</v>
       </c>
       <c r="F4">
-        <v>0.7692408004747411</v>
+        <v>0.7692</v>
       </c>
       <c r="G4">
-        <v>0.6797371655177028</v>
+        <v>0.6797</v>
       </c>
       <c r="H4">
-        <v>0.8496371252110345</v>
+        <v>0.8496</v>
       </c>
       <c r="I4">
-        <v>0.8496371252110346</v>
+        <v>0.8496</v>
       </c>
       <c r="J4">
-        <v>0.5558356033901943</v>
+        <v>0.5558</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -846,31 +846,31 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3359359904541157</v>
+        <v>0.3359</v>
       </c>
       <c r="C5">
-        <v>0.3359359904541157</v>
+        <v>0.3359</v>
       </c>
       <c r="D5">
-        <v>0.3359359904541157</v>
+        <v>0.3359</v>
       </c>
       <c r="E5">
-        <v>0.3270018018982535</v>
+        <v>0.327</v>
       </c>
       <c r="F5">
-        <v>0.3270018018982535</v>
+        <v>0.327</v>
       </c>
       <c r="G5">
-        <v>0.3239604165612801</v>
+        <v>0.324</v>
       </c>
       <c r="H5">
-        <v>0.4563917939098179</v>
+        <v>0.4564</v>
       </c>
       <c r="I5">
-        <v>0.456391793909818</v>
+        <v>0.4564</v>
       </c>
       <c r="J5">
-        <v>0.2757649826987005</v>
+        <v>0.2758</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -878,31 +878,31 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.8128326808993938</v>
+        <v>0.8128</v>
       </c>
       <c r="C6">
-        <v>0.8128326808993938</v>
+        <v>0.8128</v>
       </c>
       <c r="D6">
-        <v>0.8128326808993938</v>
+        <v>0.8128</v>
       </c>
       <c r="E6">
-        <v>0.8636577673055423</v>
+        <v>0.8637</v>
       </c>
       <c r="F6">
-        <v>0.8636577673055423</v>
+        <v>0.8637</v>
       </c>
       <c r="G6">
-        <v>0.9461090390979843</v>
+        <v>0.9461000000000001</v>
       </c>
       <c r="H6">
-        <v>0.8883619170163802</v>
+        <v>0.8884</v>
       </c>
       <c r="I6">
-        <v>0.8883619170163801</v>
+        <v>0.8884</v>
       </c>
       <c r="J6">
-        <v>1.022184181418427</v>
+        <v>1.0222</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -910,31 +910,31 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8382041797910913</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="C7">
-        <v>0.8382041797910913</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="D7">
-        <v>0.8382041797910913</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="E7">
-        <v>0.8777249670800175</v>
+        <v>0.8777</v>
       </c>
       <c r="F7">
-        <v>0.8777249670800176</v>
+        <v>0.8777</v>
       </c>
       <c r="G7">
-        <v>0.941919470823962</v>
+        <v>0.9419</v>
       </c>
       <c r="H7">
-        <v>0.8844128397304096</v>
+        <v>0.8844</v>
       </c>
       <c r="I7">
-        <v>0.88441283973041</v>
+        <v>0.8844</v>
       </c>
       <c r="J7">
-        <v>0.8883063273843387</v>
+        <v>0.8883</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -942,31 +942,31 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.602348269890623</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C8">
-        <v>0.602348269890623</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D8">
-        <v>0.602348269890623</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E8">
-        <v>0.5923599459787384</v>
+        <v>0.5924</v>
       </c>
       <c r="F8">
-        <v>0.5923599459787385</v>
+        <v>0.5924</v>
       </c>
       <c r="G8">
-        <v>0.59968908596828</v>
+        <v>0.5997</v>
       </c>
       <c r="H8">
-        <v>0.6142346390613919</v>
+        <v>0.6142</v>
       </c>
       <c r="I8">
-        <v>0.6142346390613918</v>
+        <v>0.6142</v>
       </c>
       <c r="J8">
-        <v>0.3693629351333551</v>
+        <v>0.3694</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -974,31 +974,31 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7959231483970587</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="C9">
-        <v>0.7959231483970587</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="D9">
-        <v>0.7959231483970587</v>
+        <v>0.7959000000000001</v>
       </c>
       <c r="E9">
-        <v>0.7849008827447165</v>
+        <v>0.7849</v>
       </c>
       <c r="F9">
-        <v>0.7849008827447166</v>
+        <v>0.7849</v>
       </c>
       <c r="G9">
-        <v>0.7815688391615182</v>
+        <v>0.7816</v>
       </c>
       <c r="H9">
-        <v>0.79627774110575</v>
+        <v>0.7963</v>
       </c>
       <c r="I9">
-        <v>0.79627774110575</v>
+        <v>0.7963</v>
       </c>
       <c r="J9">
-        <v>0.4330581258229801</v>
+        <v>0.4331</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1006,31 +1006,31 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.7312496522141084</v>
+        <v>0.7312</v>
       </c>
       <c r="C10">
-        <v>0.7312496522141084</v>
+        <v>0.7312</v>
       </c>
       <c r="D10">
-        <v>0.7312496522141084</v>
+        <v>0.7312</v>
       </c>
       <c r="E10">
-        <v>0.7276435281276139</v>
+        <v>0.7276</v>
       </c>
       <c r="F10">
-        <v>0.7276435281276139</v>
+        <v>0.7276</v>
       </c>
       <c r="G10">
-        <v>0.7582033739054249</v>
+        <v>0.7582</v>
       </c>
       <c r="H10">
-        <v>0.7256142785375578</v>
+        <v>0.7256</v>
       </c>
       <c r="I10">
-        <v>0.7256142785375577</v>
+        <v>0.7256</v>
       </c>
       <c r="J10">
-        <v>0.4769392034547291</v>
+        <v>0.4769</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1038,31 +1038,31 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.7095505038512381</v>
+        <v>0.7096</v>
       </c>
       <c r="C11">
-        <v>0.7095505038512381</v>
+        <v>0.7096</v>
       </c>
       <c r="D11">
-        <v>0.7095505038512381</v>
+        <v>0.7096</v>
       </c>
       <c r="E11">
-        <v>0.7233366412667699</v>
+        <v>0.7233000000000001</v>
       </c>
       <c r="F11">
-        <v>0.7233366412667701</v>
+        <v>0.7233000000000001</v>
       </c>
       <c r="G11">
-        <v>0.7770731335796038</v>
+        <v>0.7771</v>
       </c>
       <c r="H11">
-        <v>0.7407982517849568</v>
+        <v>0.7408</v>
       </c>
       <c r="I11">
-        <v>0.7407982517849567</v>
+        <v>0.7408</v>
       </c>
       <c r="J11">
-        <v>0.6607275107731411</v>
+        <v>0.6607</v>
       </c>
     </row>
   </sheetData>
